--- a/User Story1 task/TestCases(Project-Mars).xlsx
+++ b/User Story1 task/TestCases(Project-Mars).xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d6ec609eff19ea2/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{F4EEAEC4-3519-45B4-B130-A9FD695ABB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C90D5F-504A-408D-A8B6-F2DDA5FAE6A6}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D1B18A0-ED29-432D-9AC6-7705B19AC20C}"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases of OnBoarding Task1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases of Competition Task1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="274">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -55,6 +36,9 @@
   </si>
   <si>
     <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Bugs</t>
   </si>
   <si>
     <t>TS_00</t>
@@ -66,6 +50,11 @@
   <si>
     <t>Verify if a new user record is successfully created 
 with all required field.</t>
+  </si>
+  <si>
+    <t>Fill all the Required fields with Valid Input
+Then click on checkbox of terms and condition.
+Click on Join Button</t>
   </si>
   <si>
     <t>First Name: aish
@@ -75,16 +64,11 @@
 Confirm Password:Aish@123</t>
   </si>
   <si>
-    <t>Fill all the Required fields with Valid Input
-Then click on checkbox of terms and condition.
-Click on Join Button</t>
+    <t>Registered Successfully.</t>
   </si>
   <si>
     <t>Registered
 Successfully.</t>
-  </si>
-  <si>
-    <t>Registered Successfully.</t>
   </si>
   <si>
     <t>TS_01</t>
@@ -127,9 +111,6 @@
 -m password field</t>
   </si>
   <si>
-    <t>Bugs</t>
-  </si>
-  <si>
     <t>Confirm password 
 field ,when field is empty even then it is  showing password do not match error .</t>
   </si>
@@ -159,8 +140,16 @@
     <t>TS_03</t>
   </si>
   <si>
+    <t>Validate Signin by adding wrong Credentials</t>
+  </si>
+  <si>
     <t>Verify if a user is able to login with Wrong
 Credentials</t>
+  </si>
+  <si>
+    <t>Fill the email and password with wrong 
+credentials then click on remember me 
+after that click on sigin button</t>
   </si>
   <si>
     <t>Email: aish@gm.com
@@ -186,9 +175,11 @@
     <t>TS_04</t>
   </si>
   <si>
-    <t>Fill the email and password with wrong 
-credentials then click on remember me 
-after that click on sigin button</t>
+    <t xml:space="preserve">Validate Signin with empty Fields </t>
+  </si>
+  <si>
+    <t>Verify if user is able to login if he/she directly click 
+on signin button</t>
   </si>
   <si>
     <t>Click on Signin Button without Filling email 
@@ -204,16 +195,6 @@
     <t>TS_05</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate Signin with empty Fields </t>
-  </si>
-  <si>
-    <t>Verify if user is able to login if he/she directly click 
-on signin button</t>
-  </si>
-  <si>
-    <t>Validate Signin by adding wrong Credentials</t>
-  </si>
-  <si>
     <t>Validate Signin without checkbox remember
 me</t>
   </si>
@@ -237,19 +218,8 @@
     <t>Validate if login with correct email and incorrect password</t>
   </si>
   <si>
-    <t>TS_07</t>
-  </si>
-  <si>
-    <t>Validate if login with incorrect email 
-and correct password.</t>
-  </si>
-  <si>
     <t>Verify if user is not able to login in with correct email
 and incorrect password</t>
-  </si>
-  <si>
-    <t>Verify if user is not able to login with incorrect email 
-and correct password</t>
   </si>
   <si>
     <t>email:aisharya994@gmail.com
@@ -274,6 +244,17 @@
 Email verfication page"</t>
   </si>
   <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>Validate if login with incorrect email 
+and correct password.</t>
+  </si>
+  <si>
+    <t>Verify if user is not able to login with incorrect email 
+and correct password</t>
+  </si>
+  <si>
     <t>email:aisharya@gmail.com
 password:Aish@123
 Click on Signin</t>
@@ -316,13 +297,13 @@
     <t>Email:aisharya994@gmail.com</t>
   </si>
   <si>
+    <t>Check your email to reset your password
+(Email should come in which link present to set new password)</t>
+  </si>
+  <si>
     <t>Check your email to
 reset your password.
 (Email is not coming )</t>
-  </si>
-  <si>
-    <t>Check your email to reset your password
-(Email should come in which link present to set new password)</t>
   </si>
   <si>
     <t>&gt;Email is not 
@@ -334,6 +315,14 @@
     <t>TS_09</t>
   </si>
   <si>
+    <t>Validate if new user is able to create new 
+password if email verfication field is empty</t>
+  </si>
+  <si>
+    <t>Verify if new user is able to create new 
+password if email verfication field is empty</t>
+  </si>
+  <si>
     <t>Click on Forgot your password it takes to 
 Email verfication page then click on send
 verfication email button</t>
@@ -345,14 +334,6 @@
     <t>Field cannot be empty</t>
   </si>
   <si>
-    <t>Verify if new user is able to create new 
-password if email verfication field is empty</t>
-  </si>
-  <si>
-    <t>Validate if new user is able to create new 
-password if email verfication field is empty</t>
-  </si>
-  <si>
     <t>TS_10</t>
   </si>
   <si>
@@ -362,15 +343,6 @@
   <si>
     <t xml:space="preserve">Verify if a new user is able to add valid language
 in a profile </t>
-  </si>
-  <si>
-    <t>English and Fluent then click on add</t>
-  </si>
-  <si>
-    <t>Language aded successfully.</t>
-  </si>
-  <si>
-    <t>TS_11</t>
   </si>
   <si>
     <t xml:space="preserve">Click on Add New Button then in add 
@@ -380,6 +352,18 @@
 </t>
   </si>
   <si>
+    <t>English and Fluent then click on add</t>
+  </si>
+  <si>
+    <t>Language added successfully.</t>
+  </si>
+  <si>
+    <t>Language aded successfully.</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
     <t>Validate if a new user not able to add
  language with empty fields of language 
 and level.</t>
@@ -411,16 +395,7 @@
     <t>Validate if a new user not able to add language with empty language field and filled level options from selectbox</t>
   </si>
   <si>
-    <t>TS_13</t>
-  </si>
-  <si>
-    <t>Validate if a new user not able to add language with Filled language field and empty level options .</t>
-  </si>
-  <si>
     <t>Verify if a new user not able to add language with empty language field and filled level options from selectbox</t>
-  </si>
-  <si>
-    <t>Verify if a new user not able to add language with Filled language field and empty level options .</t>
   </si>
   <si>
     <t>Click on Add New Button then leave Language  textBox empty and choose select
@@ -428,7 +403,21 @@
 Click on add</t>
   </si>
   <si>
+    <t>Language Textbox leave Empty.
+In Level choose basic for selectbox
+Then click on add button.</t>
+  </si>
+  <si>
     <t>Please enter language.</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>Validate if a new user not able to add language with Filled language field and empty level options .</t>
+  </si>
+  <si>
+    <t>Verify if a new user not able to add language with Filled language field and empty level options .</t>
   </si>
   <si>
     <t>Click on add new button then add Hindi 
@@ -440,11 +429,6 @@
 then click on add button</t>
   </si>
   <si>
-    <t>Language Textbox leave Empty.
-In Level choose basic for selectbox
-Then click on add button.</t>
-  </si>
-  <si>
     <t>Please enter level.</t>
   </si>
   <si>
@@ -454,18 +438,7 @@
     <t>Validate if user is able to edit added language and level in the profile</t>
   </si>
   <si>
-    <t>TS_15</t>
-  </si>
-  <si>
-    <t>Validate if user is able to delete added lang
--uage and level from the profile.</t>
-  </si>
-  <si>
     <t>Verify if user is able to edit added language and level in the profile</t>
-  </si>
-  <si>
-    <t>Verify if user is able to delete added lang
--uage and level from the profile.</t>
   </si>
   <si>
     <t>Click on edit icon then from Englishs write 
@@ -479,6 +452,17 @@
   </si>
   <si>
     <t>English has been updated to your language</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>Validate if user is able to delete added lang
+-uage and level from the profile.</t>
+  </si>
+  <si>
+    <t>Verify if user is able to delete added lang
+-uage and level from the profile.</t>
   </si>
   <si>
     <t xml:space="preserve">Click on delete icon(x) </t>
@@ -542,9 +526,6 @@
     <t>Skill added successfully</t>
   </si>
   <si>
-    <t>Language added successfully.</t>
-  </si>
-  <si>
     <t>TS_18</t>
   </si>
   <si>
@@ -572,13 +553,6 @@
   <si>
     <t>Verify if user is able to edit added skill
 and experience level</t>
-  </si>
-  <si>
-    <t>Skill:Python
-Expirence level:Begineer</t>
-  </si>
-  <si>
-    <t>Python is updated in your skills</t>
   </si>
   <si>
     <t>Edit skills by click on edit icon(Skill:C#,Experience level:Intermediate)
@@ -586,6 +560,16 @@
 Click on add</t>
   </si>
   <si>
+    <t>Skill:Python
+Expirence level:Begineer</t>
+  </si>
+  <si>
+    <t>Python is updated in your skills</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
     <t>Delete skill by clicking on X</t>
   </si>
   <si>
@@ -595,25 +579,17 @@
     <t xml:space="preserve">Python has ben deleted </t>
   </si>
   <si>
-    <t>TS_20</t>
-  </si>
-  <si>
     <t>TS_21</t>
   </si>
   <si>
-    <t>TS_22</t>
-  </si>
-  <si>
     <t>Validate if a new user not able to add Skill with empty skill field and filled Expierence level options from selectbox</t>
   </si>
   <si>
-    <t>Validate if a new user not able to add skill with Filled Skill field and empty Experience level options .</t>
-  </si>
-  <si>
     <t>Verify if a new user not able to add Skill with empty skill field and filled Expierence level options from selectbox</t>
   </si>
   <si>
-    <t>Verify if a new user not able to add skill with Filled Skill field and empty Experience level options .</t>
+    <t>Click on Add button then leave Skill textbox empty and filled Expierence level with selectBox options 
+Click on add</t>
   </si>
   <si>
     <t>Leave Skill empty field
@@ -622,14 +598,19 @@
 Click on Add button</t>
   </si>
   <si>
+    <t xml:space="preserve">Please enter Skills </t>
+  </si>
+  <si>
     <t>Please enter skills and experience level</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter Skills </t>
-  </si>
-  <si>
-    <t>Click on Add button then leave Skill textbox empty and filled Expierence level with selectBox options 
-Click on add</t>
+    <t>TS_22</t>
+  </si>
+  <si>
+    <t>Validate if a new user not able to add skill with Filled Skill field and empty Experience level options .</t>
+  </si>
+  <si>
+    <t>Verify if a new user not able to add skill with Filled Skill field and empty Experience level options .</t>
   </si>
   <si>
     <t>Click on Add button then Enter Skill textbox  and leave  Expierence level empty
@@ -671,10 +652,17 @@
 Skill</t>
   </si>
   <si>
+    <t>#21t@s skill is added in 
+your skill</t>
+  </si>
+  <si>
     <t>TS_24</t>
   </si>
   <si>
     <t>Validate if a user is not allowed to add duplicate language</t>
+  </si>
+  <si>
+    <t>Verify if a user is not allowed to add duplicate language</t>
   </si>
   <si>
     <t xml:space="preserve">Click on add new button then enter in same
@@ -682,8 +670,10 @@
 </t>
   </si>
   <si>
-    <t>#21t@s skill is added in 
-your skill</t>
+    <t>Click on add new
+Language: English
+level: Fluent
+click on add</t>
   </si>
   <si>
     <t>This Language is already exits  in your
@@ -697,9 +687,6 @@
   </si>
   <si>
     <t>Verify if a user is not allowed to add duplicate Skill</t>
-  </si>
-  <si>
-    <t>Verify if a user is not allowed to add duplicate language</t>
   </si>
   <si>
     <t xml:space="preserve">Click on add new button then enter in same
@@ -713,12 +700,6 @@
 click on add</t>
   </si>
   <si>
-    <t>Click on add new
-Language: English
-level: Fluent
-click on add</t>
-  </si>
-  <si>
     <t>This Skill is already exits  in your
 Skill list</t>
   </si>
@@ -726,7 +707,18 @@
     <t>This Skill is already exits  in your skill list</t>
   </si>
   <si>
+    <t>TS_26</t>
+  </si>
+  <si>
+    <t>Validate if a user is not allowed to add duplicate languages  by checking case sensitive</t>
+  </si>
+  <si>
     <t>Verify if a user is not allowed to add duplicate language by checking case sensitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on add new button then enter in same
+language(like english) in textbox and choose same level
+</t>
   </si>
   <si>
     <t>Click on add new
@@ -735,28 +727,20 @@
 click on add</t>
   </si>
   <si>
+    <t>english is added in your language</t>
+  </si>
+  <si>
     <t>By checking case sensitive,It should not add
 english in language list</t>
   </si>
   <si>
-    <t>TS_26</t>
-  </si>
-  <si>
     <t>TS_27</t>
   </si>
   <si>
     <t>Validate if a user is not allowed to add duplicate Skills by checking case sensitive</t>
   </si>
   <si>
-    <t>Validate if a user is not allowed to add duplicate languages  by checking case sensitive</t>
-  </si>
-  <si>
     <t>Verify if a user is not allowed to add duplicate Skills by checking case sensitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on add new button then enter in same
-language(like english) in textbox and choose same level
-</t>
   </si>
   <si>
     <t xml:space="preserve">Click on add new button then enter in same
@@ -770,40 +754,506 @@
 click on add</t>
   </si>
   <si>
-    <t>english is added in your language</t>
-  </si>
-  <si>
     <t>java programming is added
 in your skill</t>
   </si>
   <si>
     <t>By checking case sensitive,It should not add
 java programming in language list</t>
+  </si>
+  <si>
+    <t>In Education tab , Validate empty field 
+Scenario</t>
+  </si>
+  <si>
+    <t>Verify Empty Field by clicking on Add new and then leave all 
+field empty and click on add button of education</t>
+  </si>
+  <si>
+    <t>1.Login With Credentials
+2.Click on Education Tab
+3.Click on Add New Button
+4.Leave all fields empty and click on add button</t>
+  </si>
+  <si>
+    <t>Please enter all fields</t>
+  </si>
+  <si>
+    <t>In Education tab, Validate by adding only 
+University /college field and Country of 
+University/college field</t>
+  </si>
+  <si>
+    <t>Verify by adding only University / College
+field and Country of University /college field</t>
+  </si>
+  <si>
+    <t>1.Login With Credentials
+2.Click on Education Tab
+3.Click on Add New Button
+4.Add only college/University field and Country field</t>
+  </si>
+  <si>
+    <t>University/college:Chitkara University
+country:India
+Click on Add Button</t>
+  </si>
+  <si>
+    <t>In Education tab, Validate by adding only 
+University /college field ,Country , title and
+degree</t>
+  </si>
+  <si>
+    <t>Verify by adding only University / College
+field and Country of University /college field,Country,title and degree</t>
+  </si>
+  <si>
+    <t>1.Login With Credentials
+2.Click on Education Tab
+3.Click on Add New Button
+4.Add only college/University field and Country field,title ,degree</t>
+  </si>
+  <si>
+    <t>University/college:Chitkara University
+country:India
+Title:Btech
+Degree:CSE
+Click on Add Button</t>
+  </si>
+  <si>
+    <t>In Education tab, Validate by adding only 
+University /college field ,Country , title and
+degree, year of graduation</t>
+  </si>
+  <si>
+    <t>Verify by adding only University / College
+field and Country of University /college field,Country,title , degree and year of gradu
+-ation</t>
+  </si>
+  <si>
+    <t>1.Login With Credentials
+2.Click on Education Tab
+3.Click on Add New Button
+4.Add only college/University field and Country field,title ,degree and  year of graduation</t>
+  </si>
+  <si>
+    <t>University/college:Chitkara University
+country:India
+Title:Btech
+Degree:CSE
+Year:2016
+Click on Add Button</t>
+  </si>
+  <si>
+    <t>Education has been added</t>
+  </si>
+  <si>
+    <t>Validate by adding  the duplicate education</t>
+  </si>
+  <si>
+    <t>Verify by the duplicate education</t>
+  </si>
+  <si>
+    <t>The information is already exits</t>
+  </si>
+  <si>
+    <t>Validate by edit the education</t>
+  </si>
+  <si>
+    <t>Verify by edit the education</t>
+  </si>
+  <si>
+    <t>1.Login with Credentials
+2.Click on Education Tab
+3.Click on edit icon and then you can edit any field
+4.Click on Update</t>
+  </si>
+  <si>
+    <t>University:Rayat University
+country:India
+Title:BSE
+Degree:ECE
+Year:2015
+Click on Add Button</t>
+  </si>
+  <si>
+    <t>Education has been Updated</t>
+  </si>
+  <si>
+    <t>Instead of Education as been
+updated write Education has been
+updated</t>
+  </si>
+  <si>
+    <t>Validate by deleting already added 
+education</t>
+  </si>
+  <si>
+    <t>Verify by adding already added education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Education Tab
+3.Click on delete icon 
+</t>
+  </si>
+  <si>
+    <t>Education entry successfully 
+removed</t>
+  </si>
+  <si>
+    <t>Validate user do not allow to enter numeric and symbols in the college / University Name field and Degree field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if  user do not allow to enter numeric and symbols in the college/University Name field and Degree Field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Education Tab
+3.Enter Numeric ,symbols in University/college name field and Degree field.
+4.Fill all other fields
+5.Enter Add Button
+</t>
+  </si>
+  <si>
+    <t>University:#tdddfd@###555
+country:New Zeland
+Title:PHD
+Degree:444##
+Year:2020
+Click on Add Button</t>
+  </si>
+  <si>
+    <t>Please enter university /college field
+and degree with alphabets only</t>
+  </si>
+  <si>
+    <t>Validate the college and university name
+field and degree field should be set with 
+minimum and maximum length of 
+alphabets</t>
+  </si>
+  <si>
+    <t>Verify the college and university name
+field and degree field should be set with 
+minimum and maximum length of 
+alphabets</t>
+  </si>
+  <si>
+    <t>Set length of College /University name and degree
+name field with minimum length is 3 and maximum length is 30</t>
+  </si>
+  <si>
+    <t>Set minimum and
+maximum length</t>
+  </si>
+  <si>
+    <t>Please enter fields within minimum
+amd maximum length</t>
+  </si>
+  <si>
+    <t>In Certificate tab , Validate empty field 
+Scenario</t>
+  </si>
+  <si>
+    <t>Verify Empty Field by clicking on Add new and then leave all 
+field empty and click on add button of certificate</t>
+  </si>
+  <si>
+    <t>1.Login with Credentials
+2.Click on Certificate Tab
+3.Click on Add New button
+4.leave all fields empty and click on add button</t>
+  </si>
+  <si>
+    <t>Please enter certification name, 
+certification form and certification year.</t>
+  </si>
+  <si>
+    <t>Please enter certification name, 
+certification from and certification year.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Error Display instead of Please enter certification name, 
+certification </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and certification year write Please enter Certication name,certification </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and certification year. And also Correct
+spelling of form in field also.</t>
+    </r>
+  </si>
+  <si>
+    <t>In Certificate tab , Validate by adding Certificate or award field and click on add button</t>
+  </si>
+  <si>
+    <t>Verify by adding Certificate or award field 
+and click on add</t>
+  </si>
+  <si>
+    <t>1.Login with Credentials
+2.Click on Certificate Tab
+3.Click on Add New button
+3.Enter Certificate name in certificate or award field 
+4.leave form fields and year field empty
+ 5. Click on add button</t>
+  </si>
+  <si>
+    <t>Certificate or Award: ISTQB
+Click on Add Button</t>
+  </si>
+  <si>
+    <t>Please enter certification form and certification year.</t>
+  </si>
+  <si>
+    <t>In Certificate tab , Validate by adding 
+Certificate form field, certificate year and click on add button</t>
+  </si>
+  <si>
+    <t>Verify by adding Certificate form field ,certificate year
+and click on add</t>
+  </si>
+  <si>
+    <t>1.Login with Credentials
+2.Click on Certificate Tab
+3.Click on Add New button
+3.Enter Certificate form and  Certificate year field 
+4.Leave Certificate name or award field empty
+ 5. Click on add button</t>
+  </si>
+  <si>
+    <t>Certificate Form: Adobe
+Certificate year: 2015</t>
+  </si>
+  <si>
+    <t>Please enter Certificate name</t>
+  </si>
+  <si>
+    <t>In Certificate tab , Validate by adding  all 
+Fields and click on add button</t>
+  </si>
+  <si>
+    <t>Verify by adding all fields and click on add
+ button</t>
+  </si>
+  <si>
+    <t>1.Login with Credentials
+2.Click on Certificate Tab
+3.Enter Certificate Name ,Certificate form and certificate year 
+4.Click on add button</t>
+  </si>
+  <si>
+    <t>Certificate Name: ISTQB
+Certificate Form:Adobe
+Certificate year:2015</t>
+  </si>
+  <si>
+    <t>ISTQB has been added to your
+certification</t>
+  </si>
+  <si>
+    <t>Validate if user is not allowed to enter 
+numerics and Symbol in certification name 
+and certification adobe</t>
+  </si>
+  <si>
+    <t>Verify if user is not allowed to enter 
+numerics and Symbol in certification name 
+and certification adobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Certificate Tab
+3.Enter  alphabets only in Certificate Name ,Certificate form and certificate year 
+4.Click on Add button
+</t>
+  </si>
+  <si>
+    <t>Certificate Name: #SRSSS%^^%%^%^%^%444444444444
+Certificate Form:Adobe
+Certificate year:2018</t>
+  </si>
+  <si>
+    <t>Please fill field with alphabet only</t>
+  </si>
+  <si>
+    <t>#SRSSS%^^%%^%^%^%444444
+444444 has been added to your
+ certification</t>
+  </si>
+  <si>
+    <t>Validate by setting minimum and maximum
+length of Certification name  field and form
+ field</t>
+  </si>
+  <si>
+    <t>Verify by setting minimum and maximum
+length of Certification name  field and form
+ field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Certificate Tab
+3.Set Minimum length is 3 and Maximum length is 30 of all certification fields.
+</t>
+  </si>
+  <si>
+    <t>Certicate Name: $53345
+3dvhvgrdr%%%%%E$#$#$
+#$#$#$E$#$#$#$#$#$#$#
+$#$#$FGHHFGFG{
+Certificate form:Adobe#@@@#$$23</t>
+  </si>
+  <si>
+    <t>Please enter all field  within length</t>
+  </si>
+  <si>
+    <t>$53345
+3dvhvgrdr%%%%%E$#$#$
+#$#$#$E$#$#$#$#$#$#$#
+$#$#$FGHHFGFG{ has been added to your certification</t>
+  </si>
+  <si>
+    <t>Validate by editing the certification</t>
+  </si>
+  <si>
+    <t>Verify by editing the certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Certificate Tab
+3.Click on edit icon
+4.Enter new certification name ,form and year.
+5.Click on Update
+</t>
+  </si>
+  <si>
+    <t>Certificate Name: Risk Testing
+Certificate Form:Adobe
+Certificate year:2018</t>
+  </si>
+  <si>
+    <t>Risk Testing has been Updated to
+your Certification</t>
+  </si>
+  <si>
+    <t>Validate by deleting already added 
+certification</t>
+  </si>
+  <si>
+    <t>Verify by deleting the certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Certificate Tab
+3.Click on delete icon
+</t>
+  </si>
+  <si>
+    <t>Click on delete icon(x)</t>
+  </si>
+  <si>
+    <t>Risk Testing has been deleted from 
+your certification</t>
+  </si>
+  <si>
+    <t>Validate by adding duplicate Certification</t>
+  </si>
+  <si>
+    <t>Verify by adding duplicate Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Credentials
+2.Click on Certificate Tab
+3.Click on Add New
+4.Add Certificate Name :ISTQB
+Certificate form:Adobe
+Certificate year:2015
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with ceredentials
+2.click on certification tab
+3.Click on add new
+4.enter same certification name ,form and year.
+4.click on add button.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,17 +1261,155 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,8 +1422,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -888,12 +1662,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -904,35 +1917,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -981,7 +2043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1014,26 +2076,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1066,23 +2111,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1224,36 +2252,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD97EF2-B6D5-4392-B374-17B344968A55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="42.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="36.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="27.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="34.4545454545455" customWidth="1"/>
+    <col min="7" max="7" width="23.5454545454545" customWidth="1"/>
     <col min="8" max="8" width="15" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" ht="25.75" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +2298,8 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>21</v>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1298,662 +2321,662 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" ht="72.5" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="116" x14ac:dyDescent="0.35">
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="116" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" ht="43.5" spans="1:7">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" ht="145" spans="1:8">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="87" spans="1:7">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="43.5" spans="1:7">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" ht="145" spans="1:8">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" ht="130.5" spans="1:8">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="319" x14ac:dyDescent="0.35">
+    <row r="10" ht="304.5" spans="1:8">
       <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" ht="43.5" spans="1:7">
       <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="87" x14ac:dyDescent="0.35">
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="87" spans="1:7">
       <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="5" t="s">
+    </row>
+    <row r="13" ht="43.5" spans="1:7">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" ht="58" spans="1:7">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" ht="43.5" spans="1:7">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" ht="43.5" spans="1:7">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" ht="43.5" spans="1:7">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" ht="43.5" spans="1:7">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="72.5" spans="1:7">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G19" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" ht="29" spans="1:7">
       <c r="A20" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" ht="58" spans="1:7">
       <c r="A21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G21" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" ht="29" spans="1:7">
       <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" ht="58" spans="1:7">
       <c r="A23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" ht="43.5" spans="1:7">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" ht="58" spans="1:7">
       <c r="A25" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" ht="58" spans="1:7">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" ht="72.5" spans="1:7">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="C27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="F27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" ht="72.5" spans="1:8">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="G28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" ht="87" spans="1:8">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>185</v>
       </c>
       <c r="H29" s="9" t="s">
@@ -1962,9 +2985,502 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G25" r:id="rId1" xr:uid="{296FE4B2-17AC-436D-B4AE-79FC69384AC5}"/>
+    <hyperlink ref="G25" r:id="rId1" display="#21t@s skill is added in &#10;your skill"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="37.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="37.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="22.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="31.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="34.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="29.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.25" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" ht="58" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" ht="72.5" spans="1:7">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" ht="87" spans="1:7">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" ht="101.5" spans="1:7">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" ht="101.5" spans="1:7">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" ht="101.5" spans="1:8">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" ht="58" spans="1:7">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" ht="101.5" spans="1:7">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" ht="58" spans="1:7">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" ht="101.5" spans="1:8">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" ht="101.5" spans="1:7">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" ht="87" spans="1:7">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" ht="72.5" spans="1:7">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" ht="87" spans="1:7">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" ht="101.5" spans="1:7">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" ht="101.5" spans="1:7">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" ht="87" spans="1:7">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" ht="130.5" spans="1:7">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>